--- a/GestorReceitas/Abril/relatorioMensal_abril.xlsx
+++ b/GestorReceitas/Abril/relatorioMensal_abril.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Abril\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A33798-769A-4251-B707-57D3E4A33E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F73499A-DE79-4CB0-87E9-BED38EA54E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="454">
   <si>
     <t>Nome</t>
   </si>
@@ -1395,6 +1395,9 @@
   </si>
   <si>
     <t>Info</t>
+  </si>
+  <si>
+    <t>validado</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1569,6 +1572,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1577,7 +1582,12 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1891,10 +1901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,127 +1982,117 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>36</v>
+      <c r="A2" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2">
-        <v>60</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <f>108-48</f>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="P2" s="3">
         <f xml:space="preserve"> M2+L2   +  N2 +O2- (G2 + H2 + I2 + K2 + J2)</f>
-        <v>-13.5</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>451</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <f>22-20</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="P3" s="3">
         <f xml:space="preserve"> M3+L3   +  N3 +O3- (G3 + H3 + I3 + K3 + J3)</f>
-        <v>-2</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" t="s">
-        <v>451</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>54</v>
+      <c r="A4" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2105,10 +2106,12 @@
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
@@ -2117,40 +2120,40 @@
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>122.5</v>
       </c>
       <c r="O4" s="3">
-        <v>-15</v>
+        <v>56</v>
       </c>
       <c r="P4" s="3">
         <f xml:space="preserve"> M4+L4   +  N4 +O4- (G4 + H4 + I4 + K4 + J4)</f>
-        <v>-15</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>201</v>
       </c>
       <c r="S4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>85</v>
+      <c r="A5" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <v>15</v>
@@ -2161,45 +2164,40 @@
       <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2">
-        <v>115</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
-        <v>115</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <f>55-55</f>
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="3">
         <f xml:space="preserve"> M5+L5   +  N5 +O5- (G5 + H5 + I5 + K5 + J5)</f>
-        <v>-28.5</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
-        <v>451</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>88</v>
+      <c r="A6" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2211,39 +2209,37 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2">
-        <v>0</v>
+        <f>60.5-8</f>
+        <v>52.5</v>
       </c>
       <c r="O6" s="3">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3">
         <f xml:space="preserve"> M6+L6   +  N6 +O6- (G6 + H6 + I6 + K6 + J6)</f>
-        <v>-107.5</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" t="s">
-        <v>451</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>118</v>
+      <c r="A7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -2252,74 +2248,66 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>100</v>
-      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>100</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <f>44-44</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
       <c r="P7" s="3">
         <f xml:space="preserve"> M7+L7   +  N7 +O7- (G7 + H7 + I7 + K7 + J7)</f>
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" t="s">
-        <v>451</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>121</v>
+      <c r="A8" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2327,116 +2315,109 @@
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="2">
-        <v>115</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>115</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O8" s="3">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <f xml:space="preserve"> M8+L8   +  N8 +O8- (G8 + H8 + I8 + K8 + J8)</f>
-        <v>-2</v>
+        <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" t="s">
-        <v>451</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>124</v>
+      <c r="A9" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>404</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <v>100</v>
+      </c>
       <c r="N9" s="2">
-        <f>150-59-90</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="P9" s="3">
         <f xml:space="preserve"> M9+L9   +  N9 +O9- (G9 + H9 + I9 + K9 + J9)</f>
-        <v>-11</v>
+        <v>30</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>130</v>
+      <c r="A10" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
@@ -2450,40 +2431,37 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>-2</v>
+        <v>37.5</v>
       </c>
       <c r="P10" s="3">
         <f xml:space="preserve"> M10+L10   +  N10 +O10- (G10 + H10 + I10 + K10 + J10)</f>
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>132</v>
-      </c>
-      <c r="S10" t="s">
-        <v>451</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>133</v>
+      <c r="A11" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2503,40 +2481,37 @@
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <v>-22.5</v>
+        <v>37.5</v>
       </c>
       <c r="P11" s="3">
         <f xml:space="preserve"> M11+L11   +  N11 +O11- (G11 + H11 + I11 + K11 + J11)</f>
-        <v>-44</v>
+        <v>30</v>
       </c>
       <c r="R11" t="s">
-        <v>135</v>
-      </c>
-      <c r="S11" t="s">
-        <v>451</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>166</v>
+      <c r="A12" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2544,37 +2519,31 @@
       <c r="I12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2">
-        <v>100</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2">
-        <f>236.5-136.5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="P12" s="3">
         <f xml:space="preserve"> M12+L12   +  N12 +O12- (G12 + H12 + I12 + K12 + J12)</f>
-        <v>-31.5</v>
+        <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>168</v>
-      </c>
-      <c r="S12" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>193</v>
+      <c r="A13" s="5" t="s">
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
@@ -2583,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2595,57 +2564,54 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O13" s="3">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="P13" s="3">
         <f xml:space="preserve"> M13+L13   +  N13 +O13- (G13 + H13 + I13 + K13 + J13)</f>
-        <v>-6</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>195</v>
-      </c>
-      <c r="S13" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>202</v>
+      <c r="A14" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2655,56 +2621,53 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O14" s="3">
-        <v>-258</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <f xml:space="preserve"> M14+L14   +  N14 +O14- (G14 + H14 + I14 + K14 + J14)</f>
-        <v>-275.5</v>
+        <v>22.5</v>
       </c>
       <c r="R14" t="s">
-        <v>204</v>
-      </c>
-      <c r="S14" t="s">
-        <v>451</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>190</v>
+      <c r="A15" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
@@ -2715,26 +2678,24 @@
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
-        <f>15.5+15.5</f>
-        <v>31</v>
+        <f>38-8</f>
+        <v>30</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
         <f xml:space="preserve"> M15+L15   +  N15 +O15- (G15 + H15 + I15 + K15 + J15)</f>
-        <v>-7.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s">
-        <v>192</v>
-      </c>
-      <c r="S15" t="s">
-        <v>451</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>231</v>
+      <c r="A16" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2743,16 +2704,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2760,7 +2721,9 @@
       <c r="I16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>17.7</v>
+      </c>
       <c r="K16" s="2">
         <v>0</v>
       </c>
@@ -2769,97 +2732,93 @@
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
-        <v>0</v>
+        <f>56.8-34+4.4+15</f>
+        <v>42.199999999999996</v>
       </c>
       <c r="O16" s="3">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
         <f xml:space="preserve"> M16+L16   +  N16 +O16- (G16 + H16 + I16 + K16 + J16)</f>
-        <v>-26.5</v>
+        <v>14.999999999999996</v>
       </c>
       <c r="R16" t="s">
-        <v>233</v>
-      </c>
-      <c r="S16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>125</v>
+      </c>
+      <c r="K17" s="2">
         <v>6</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>14</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <f>90-90</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P17" s="3">
         <f xml:space="preserve"> M17+L17   +  N17 +O17- (G17 + H17 + I17 + K17 + J17)</f>
-        <v>-21.5</v>
+        <v>13</v>
       </c>
       <c r="R17" t="s">
-        <v>126</v>
-      </c>
-      <c r="S17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>243</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
         <v>6</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18" s="2">
-        <v>25</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2869,56 +2828,54 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="2">
         <v>0</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>0</v>
+        <f>24.75+3.75+3</f>
+        <v>31.5</v>
       </c>
       <c r="O18" s="3">
-        <v>-195</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <f xml:space="preserve"> M18+L18   +  N18 +O18- (G18 + H18 + I18 + K18 + J18)</f>
-        <v>-227.5</v>
+        <v>12</v>
       </c>
       <c r="R18" t="s">
-        <v>192</v>
-      </c>
-      <c r="S18" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>253</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>434</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
+      <c r="I19" s="2">
+        <v>0</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2">
@@ -2929,52 +2886,50 @@
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
-        <v>0</v>
+        <f>24.75-3.75-3</f>
+        <v>18</v>
       </c>
       <c r="O19" s="3">
-        <v>-22.5</v>
+        <v>0</v>
       </c>
       <c r="P19" s="3">
         <f xml:space="preserve"> M19+L19   +  N19 +O19- (G19 + H19 + I19 + K19 + J19)</f>
-        <v>-30</v>
+        <v>12</v>
       </c>
       <c r="R19" t="s">
-        <v>255</v>
-      </c>
-      <c r="S19" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>265</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2">
-        <v>0</v>
+      <c r="I20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J20" s="2">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="K20" s="2">
         <v>6</v>
@@ -2982,36 +2937,35 @@
       <c r="L20" s="2">
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <v>115</v>
+      </c>
       <c r="N20" s="2">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <f xml:space="preserve"> M20+L20   +  N20 +O20- (G20 + H20 + I20 + K20 + J20)</f>
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="R20" t="s">
-        <v>267</v>
-      </c>
-      <c r="S20" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>290</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>356</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3025,8 +2979,8 @@
       <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
+      <c r="I21" s="2">
+        <v>0</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2">
@@ -3037,35 +2991,31 @@
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
-        <f>17-17</f>
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3">
         <f xml:space="preserve"> M21+L21   +  N21 +O21- (G21 + H21 + I21 + K21 + J21)</f>
-        <v>-13.5</v>
+        <v>6</v>
       </c>
       <c r="R21" t="s">
-        <v>292</v>
-      </c>
-      <c r="S21" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>299</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3077,48 +3027,45 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2">
         <v>0</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O22" s="3">
-        <v>-16</v>
+        <v>1.5</v>
       </c>
       <c r="P22" s="3">
         <f xml:space="preserve"> M22+L22   +  N22 +O22- (G22 + H22 + I22 + K22 + J22)</f>
-        <v>-27.5</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
-        <v>301</v>
-      </c>
-      <c r="S22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>305</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>152</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3130,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
@@ -3144,79 +3091,75 @@
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
-        <f>35-35</f>
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <f>11.25-2.25</f>
+        <v>9</v>
       </c>
       <c r="P23" s="3">
         <f xml:space="preserve"> M23+L23   +  N23 +O23- (G23 + H23 + I23 + K23 + J23)</f>
-        <v>-17.5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="s">
-        <v>307</v>
-      </c>
-      <c r="S23" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>320</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>321</v>
+        <v>105</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G24" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2"/>
+      <c r="I24" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>73.5</v>
+      </c>
       <c r="K24" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
-        <v>22.5</v>
+        <v>108</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
         <f xml:space="preserve"> M24+L24   +  N24 +O24- (G24 + H24 + I24 + K24 + J24)</f>
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>322</v>
-      </c>
-      <c r="S24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>329</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
@@ -3225,26 +3168,24 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G25" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2">
         <v>6</v>
       </c>
@@ -3253,102 +3194,92 @@
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2">
-        <f>68-28</f>
-        <v>40</v>
+        <v>44.5</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
       </c>
       <c r="P25" s="3">
         <f xml:space="preserve"> M25+L25   +  N25 +O25- (G25 + H25 + I25 + K25 + J25)</f>
-        <v>-6</v>
-      </c>
-      <c r="Q25" s="2"/>
+        <v>2</v>
+      </c>
       <c r="R25" t="s">
-        <v>331</v>
-      </c>
-      <c r="S25" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>343</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>409</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H26" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J26" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K26" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
         <v>0</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
-        <f>85-85</f>
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P26" s="3">
         <f xml:space="preserve"> M26+L26   +  N26 +O26- (G26 + H26 + I26 + K26 + J26)</f>
-        <v>-142.5</v>
-      </c>
-      <c r="Q26" s="2"/>
+        <v>1.5</v>
+      </c>
       <c r="R26" t="s">
-        <v>345</v>
-      </c>
-      <c r="S26" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>346</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>332</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="E27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -3358,51 +3289,48 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2">
-        <f>21-21</f>
-        <v>0</v>
+        <f>42.5-42</f>
+        <v>0.5</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
         <f xml:space="preserve"> M27+L27   +  N27 +O27- (G27 + H27 + I27 + K27 + J27)</f>
-        <v>-15.5</v>
+        <v>0.5</v>
       </c>
       <c r="R27" t="s">
-        <v>348</v>
-      </c>
-      <c r="S27" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>352</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>353</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -3415,47 +3343,44 @@
         <v>6</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <v>-169</v>
+        <v>0</v>
       </c>
       <c r="P28" s="3">
         <f xml:space="preserve"> M28+L28   +  N28 +O28- (G28 + H28 + I28 + K28 + J28)</f>
-        <v>-197.5</v>
+        <v>0</v>
       </c>
       <c r="R28" t="s">
-        <v>354</v>
-      </c>
-      <c r="S28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>358</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>30</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G29" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -3465,41 +3390,35 @@
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O29" s="3">
-        <v>-65</v>
+        <v>0</v>
       </c>
       <c r="P29" s="3">
         <f xml:space="preserve"> M29+L29   +  N29 +O29- (G29 + H29 + I29 + K29 + J29)</f>
-        <v>-103.5</v>
+        <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>360</v>
-      </c>
-      <c r="S29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>361</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3513,8 +3432,8 @@
       <c r="H30" s="2">
         <v>0</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>23</v>
+      <c r="I30" s="2">
+        <v>0</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2">
@@ -3528,40 +3447,40 @@
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="P30" s="3">
         <f xml:space="preserve"> M30+L30   +  N30 +O30- (G30 + H30 + I30 + K30 + J30)</f>
-        <v>-22.5</v>
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>453</v>
       </c>
       <c r="R30" t="s">
-        <v>363</v>
-      </c>
-      <c r="S30" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>379</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>380</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -3569,47 +3488,40 @@
       <c r="I31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="2">
-        <v>125</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2">
         <v>0</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
       </c>
-      <c r="M31" s="2">
-        <v>125</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
       <c r="P31" s="3">
         <f xml:space="preserve"> M31+L31   +  N31 +O31- (G31 + H31 + I31 + K31 + J31)</f>
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>381</v>
-      </c>
-      <c r="S31" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>385</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="E32">
         <v>10</v>
@@ -3623,8 +3535,8 @@
       <c r="H32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>23</v>
+      <c r="I32" s="2">
+        <v>0</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2">
@@ -3635,27 +3547,23 @@
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2">
-        <f>45-45</f>
-        <v>0</v>
+        <f>18.75-3.75</f>
+        <v>15</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <f xml:space="preserve"> M32+L32   +  N32 +O32- (G32 + H32 + I32 + K32 + J32)</f>
-        <v>-22.5</v>
-      </c>
-      <c r="Q32" s="2"/>
+        <v>0</v>
+      </c>
       <c r="R32" t="s">
-        <v>387</v>
-      </c>
-      <c r="S32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>394</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>47</v>
@@ -3664,16 +3572,16 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>395</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>10</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G33" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -3681,9 +3589,7 @@
       <c r="I33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="2">
-        <v>17</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2">
         <v>0</v>
       </c>
@@ -3692,35 +3598,31 @@
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2">
-        <f>47.5-8</f>
-        <v>39.5</v>
+        <v>22.5</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
         <f xml:space="preserve"> M33+L33   +  N33 +O33- (G33 + H33 + I33 + K33 + J33)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="R33" t="s">
-        <v>396</v>
-      </c>
-      <c r="S33" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>397</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>398</v>
+        <v>58</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -3737,56 +3639,49 @@
       <c r="I34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J34" s="2">
-        <v>100</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
         <v>0</v>
       </c>
-      <c r="M34" s="2">
-        <v>100</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O34" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P34" s="3">
         <f xml:space="preserve"> M34+L34   +  N34 +O34- (G34 + H34 + I34 + K34 + J34)</f>
-        <v>-10.5</v>
+        <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>399</v>
-      </c>
-      <c r="S34" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>437</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>438</v>
+        <v>61</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -3794,9 +3689,7 @@
       <c r="I35" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J35" s="2">
-        <v>17.7</v>
-      </c>
+      <c r="J35" s="2"/>
       <c r="K35" s="2">
         <v>0</v>
       </c>
@@ -3805,35 +3698,32 @@
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2">
-        <f>56.8-4.4-15-17.7</f>
-        <v>19.7</v>
+        <f>3.75+18.75</f>
+        <v>22.5</v>
       </c>
       <c r="O35" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <f xml:space="preserve"> M35+L35   +  N35 +O35- (G35 + H35 + I35 + K35 + J35)</f>
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>242</v>
-      </c>
-      <c r="S35" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>439</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>440</v>
+        <v>69</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -3847,12 +3737,12 @@
       <c r="H36" s="2">
         <v>0</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>23</v>
+      <c r="I36" s="2">
+        <v>0</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
@@ -3862,53 +3752,50 @@
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <v>-81</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
         <f xml:space="preserve"> M36+L36   +  N36 +O36- (G36 + H36 + I36 + K36 + J36)</f>
-        <v>-94.5</v>
-      </c>
-      <c r="R36" t="s">
-        <v>441</v>
-      </c>
-      <c r="S36" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>23</v>
+      <c r="I37" s="2">
+        <v>0</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>13.5</v>
+        <v>2</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2">
@@ -3922,12 +3809,12 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -3936,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3948,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2">
@@ -3962,22 +3849,23 @@
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2">
-        <v>0</v>
+        <f>12-8</f>
+        <v>4</v>
       </c>
       <c r="O38" s="3">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="P38" s="3">
         <f xml:space="preserve"> M38+L38   +  N38 +O38- (G38 + H38 + I38 + K38 + J38)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -3986,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4022,36 +3910,36 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>32</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>23</v>
+      <c r="I40" s="2">
+        <v>0</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2">
@@ -4062,7 +3950,7 @@
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
         <v>0</v>
@@ -4071,37 +3959,40 @@
         <f xml:space="preserve"> M40+L40   +  N40 +O40- (G40 + H40 + I40 + K40 + J40)</f>
         <v>0</v>
       </c>
+      <c r="Q40" t="s">
+        <v>453</v>
+      </c>
       <c r="R40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
-        <v>0</v>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2">
@@ -4112,8 +4003,7 @@
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2">
-        <f>18.75-3.75</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -4123,18 +4013,18 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4169,22 +4059,25 @@
         <f xml:space="preserve"> M42+L42   +  N42 +O42- (G42 + H42 + I42 + K42 + J42)</f>
         <v>0</v>
       </c>
+      <c r="Q42" t="s">
+        <v>453</v>
+      </c>
       <c r="R42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>10</v>
@@ -4206,11 +4099,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -4220,62 +4113,65 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="2"/>
+      <c r="J44" s="2">
+        <v>115</v>
+      </c>
       <c r="K44" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L44" s="2">
         <v>0</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2">
-        <v>37.5</v>
+        <f>149.5-8+6</f>
+        <v>147.5</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
         <f xml:space="preserve"> M44+L44   +  N44 +O44- (G44 + H44 + I44 + K44 + J44)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -4284,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4298,10 +4194,12 @@
       <c r="H45" s="2">
         <v>0</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="2"/>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>60</v>
+      </c>
       <c r="K45" s="2">
         <v>0</v>
       </c>
@@ -4310,7 +4208,8 @@
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2">
-        <v>7.5</v>
+        <f>63.5-3.5</f>
+        <v>60</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -4320,30 +4219,30 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -4360,8 +4259,7 @@
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
-        <f>3.75+18.75</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -4371,30 +4269,30 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -4404,47 +4302,47 @@
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <f xml:space="preserve"> M47+L47   +  N47 +O47- (G47 + H47 + I47 + K47 + J47)</f>
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -4452,31 +4350,34 @@
       <c r="I48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <v>115</v>
+      </c>
       <c r="K48" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" s="2">
         <v>0</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2">
-        <v>30</v>
+        <f>149.5-6</f>
+        <v>143.5</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
         <f xml:space="preserve"> M48+L48   +  N48 +O48- (G48 + H48 + I48 + K48 + J48)</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="R48" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>68</v>
+      <c r="A49" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -4485,16 +4386,16 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -4507,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2">
@@ -4520,28 +4421,28 @@
         <f xml:space="preserve"> M49+L49   +  N49 +O49- (G49 + H49 + I49 + K49 + J49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>70</v>
+      <c r="R49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -4554,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2">
@@ -4567,37 +4468,40 @@
         <f xml:space="preserve"> M50+L50   +  N50 +O50- (G50 + H50 + I50 + K50 + J50)</f>
         <v>0</v>
       </c>
+      <c r="Q50" t="s">
+        <v>453</v>
+      </c>
       <c r="R50" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H51" s="2">
-        <v>4</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2">
@@ -4608,8 +4512,8 @@
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2">
-        <f>12-8</f>
-        <v>4</v>
+        <f>67.5-45</f>
+        <v>22.5</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -4619,12 +4523,12 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>76</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -4633,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -4647,8 +4551,8 @@
       <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>23</v>
+      <c r="I52" s="2">
+        <v>0</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2">
@@ -4659,7 +4563,7 @@
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4668,34 +4572,37 @@
         <f xml:space="preserve"> M52+L52   +  N52 +O52- (G52 + H52 + I52 + K52 + J52)</f>
         <v>0</v>
       </c>
+      <c r="Q52" t="s">
+        <v>453</v>
+      </c>
       <c r="R52" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>23</v>
@@ -4705,35 +4612,35 @@
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="P53" s="3">
         <f xml:space="preserve"> M53+L53   +  N53 +O53- (G53 + H53 + I53 + K53 + J53)</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R53" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>82</v>
+      <c r="A54" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -4747,8 +4654,8 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="I54" s="2">
-        <v>0</v>
+      <c r="I54" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2">
@@ -4759,7 +4666,7 @@
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -4769,21 +4676,21 @@
         <v>0</v>
       </c>
       <c r="R54" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -4795,21 +4702,23 @@
         <v>0</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <v>100</v>
+      </c>
       <c r="K55" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="O55" s="3">
         <v>0</v>
@@ -4819,18 +4728,21 @@
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>95</v>
+      <c r="A56" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>47</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4844,8 +4756,8 @@
       <c r="H56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="2">
-        <v>0</v>
+      <c r="I56" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2">
@@ -4856,7 +4768,7 @@
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O56" s="3">
         <v>0</v>
@@ -4866,43 +4778,40 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>98</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="E57">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>23</v>
+      <c r="I57" s="2">
+        <v>0</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2">
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2">
@@ -4915,51 +4824,53 @@
         <f xml:space="preserve"> M57+L57   +  N57 +O57- (G57 + H57 + I57 + K57 + J57)</f>
         <v>0</v>
       </c>
+      <c r="Q57" t="s">
+        <v>453</v>
+      </c>
       <c r="R57" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G58" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J58" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K58" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L58" s="2">
         <v>0</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2">
-        <f>149.5-8+6</f>
-        <v>147.5</v>
+        <v>107.5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4969,73 +4880,68 @@
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>104</v>
+      <c r="A59" s="11" t="s">
+        <v>181</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="E59">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G59" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="J59" s="2">
-        <v>73.5</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="L59" s="2">
         <v>0</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2">
-        <v>108</v>
+        <v>7.5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
         <f xml:space="preserve"> M59+L59   +  N59 +O59- (G59 + H59 + I59 + K59 + J59)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -5049,12 +4955,10 @@
       <c r="H60" s="2">
         <v>0</v>
       </c>
-      <c r="I60" s="2">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2">
-        <v>60</v>
-      </c>
+      <c r="I60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="2"/>
       <c r="K60" s="2">
         <v>0</v>
       </c>
@@ -5063,8 +4967,7 @@
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2">
-        <f>63.5-3.5</f>
-        <v>60</v>
+        <v>7.5</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -5074,12 +4977,12 @@
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="B61" t="s">
         <v>51</v>
@@ -5088,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -5100,21 +5003,22 @@
         <v>0</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L61" s="2">
         <v>0</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2">
-        <v>7.5</v>
+        <f>8.75+8.75</f>
+        <v>17.5</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -5124,47 +5028,49 @@
         <v>0</v>
       </c>
       <c r="R61" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>113</v>
+      <c r="A62" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="2"/>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>100</v>
+      </c>
       <c r="K62" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L62" s="2">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -5174,30 +5080,30 @@
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>116</v>
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -5205,19 +5111,16 @@
       <c r="I63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="2">
-        <v>115</v>
-      </c>
+      <c r="J63" s="2"/>
       <c r="K63" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2">
         <v>0</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2">
-        <f>149.5-6</f>
-        <v>143.5</v>
+        <v>7.5</v>
       </c>
       <c r="O63" s="3">
         <v>0</v>
@@ -5227,18 +5130,21 @@
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="B64" t="s">
         <v>43</v>
       </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5273,48 +5179,51 @@
         <f xml:space="preserve"> M64+L64   +  N64 +O64- (G64 + H64 + I64 + K64 + J64)</f>
         <v>0</v>
       </c>
+      <c r="Q64" t="s">
+        <v>453</v>
+      </c>
       <c r="R64" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="B65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
-      <c r="I65" s="2">
-        <v>0</v>
+      <c r="I65" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2">
         <v>0</v>
       </c>
       <c r="L65" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="O65" s="3">
         <v>0</v>
@@ -5324,38 +5233,40 @@
         <v>0</v>
       </c>
       <c r="R65" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>139</v>
+      <c r="A66" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
-      <c r="I66" s="2">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="2">
+        <v>115</v>
+      </c>
       <c r="K66" s="2">
         <v>0</v>
       </c>
@@ -5364,7 +5275,7 @@
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2">
-        <v>0</v>
+        <v>137.5</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -5374,36 +5285,36 @@
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>142</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="E67">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>23</v>
+      <c r="I67" s="2">
+        <v>0</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2">
@@ -5414,8 +5325,7 @@
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2">
-        <f>67.5-45</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="O67" s="3">
         <v>0</v>
@@ -5424,37 +5334,40 @@
         <f xml:space="preserve"> M67+L67   +  N67 +O67- (G67 + H67 + I67 + K67 + J67)</f>
         <v>0</v>
       </c>
+      <c r="Q67" t="s">
+        <v>453</v>
+      </c>
       <c r="R67" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>145</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>23</v>
+      <c r="I68" s="2">
+        <v>0</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2">
@@ -5465,31 +5378,34 @@
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="O68" s="3">
         <v>0</v>
       </c>
       <c r="P68" s="3">
         <f xml:space="preserve"> M68+L68   +  N68 +O68- (G68 + H68 + I68 + K68 + J68)</f>
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>453</v>
       </c>
       <c r="R68" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>148</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -5503,15 +5419,15 @@
       <c r="H69" s="2">
         <v>0</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>23</v>
+      <c r="I69" s="2">
+        <v>0</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2">
         <v>0</v>
       </c>
       <c r="L69" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2">
@@ -5524,22 +5440,25 @@
         <f xml:space="preserve"> M69+L69   +  N69 +O69- (G69 + H69 + I69 + K69 + J69)</f>
         <v>0</v>
       </c>
+      <c r="Q69" t="s">
+        <v>453</v>
+      </c>
       <c r="R69" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>151</v>
+      <c r="A70" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -5553,44 +5472,45 @@
       <c r="H70" s="2">
         <v>0</v>
       </c>
-      <c r="I70" s="2">
-        <v>0</v>
-      </c>
-      <c r="J70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" s="2">
+        <v>100</v>
+      </c>
       <c r="K70" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L70" s="2">
         <v>0</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2">
-        <v>0</v>
+        <v>107.5</v>
       </c>
       <c r="O70" s="3">
-        <f>11.25-2.25</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <f xml:space="preserve"> M70+L70   +  N70 +O70- (G70 + H70 + I70 + K70 + J70)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>153</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -5616,6 +5536,7 @@
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2">
+        <f>22.5-15</f>
         <v>7.5</v>
       </c>
       <c r="O71" s="3">
@@ -5626,27 +5547,30 @@
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>157</v>
+      <c r="A72" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -5656,14 +5580,14 @@
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L72" s="2">
         <v>0</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -5673,21 +5597,21 @@
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5701,21 +5625,19 @@
       <c r="H73" s="2">
         <v>4</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="2">
-        <v>100</v>
-      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2"/>
       <c r="K73" s="2">
         <v>6</v>
       </c>
       <c r="L73" s="2">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O73" s="3">
         <v>0</v>
@@ -5725,21 +5647,21 @@
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>263</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5751,160 +5673,157 @@
         <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L74" s="2">
         <v>0</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="O74" s="3">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="P74" s="3">
         <f xml:space="preserve"> M74+L74   +  N74 +O74- (G74 + H74 + I74 + K74 + J74)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="2">
-        <v>115</v>
-      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="2">
         <v>6</v>
       </c>
       <c r="L75" s="2">
         <v>0</v>
       </c>
-      <c r="M75" s="2">
-        <v>115</v>
-      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2">
-        <v>36.5</v>
+        <f>25-19</f>
+        <v>6</v>
       </c>
       <c r="O75" s="3">
         <v>0</v>
       </c>
       <c r="P75" s="3">
         <f xml:space="preserve"> M75+L75   +  N75 +O75- (G75 + H75 + I75 + K75 + J75)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>172</v>
+        <v>276</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>277</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
-      <c r="I76" s="2">
-        <v>0</v>
+      <c r="I76" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J76" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K76" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L76" s="2">
         <v>0</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2">
-        <v>162</v>
+        <v>137.5</v>
       </c>
       <c r="O76" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <f xml:space="preserve"> M76+L76   +  N76 +O76- (G76 + H76 + I76 + K76 + J76)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R76" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -5912,7 +5831,9 @@
       <c r="I77" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J77" s="2"/>
+      <c r="J77" s="2">
+        <v>113.5</v>
+      </c>
       <c r="K77" s="2">
         <v>0</v>
       </c>
@@ -5921,7 +5842,7 @@
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2">
-        <v>7.5</v>
+        <v>146</v>
       </c>
       <c r="O77" s="3">
         <v>0</v>
@@ -5931,49 +5852,47 @@
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H78" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J78" s="2">
-        <v>100</v>
-      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="2">
         <v>0</v>
       </c>
       <c r="L78" s="2">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="O78" s="3">
         <v>0</v>
@@ -5983,27 +5902,30 @@
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>180</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>181</v>
+        <v>287</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -6011,16 +5933,18 @@
       <c r="I79" s="2">
         <v>0</v>
       </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2" t="s">
-        <v>23</v>
+      <c r="J79" s="2">
+        <v>125</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
       </c>
       <c r="L79" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O79" s="3">
         <v>0</v>
@@ -6030,21 +5954,21 @@
         <v>0</v>
       </c>
       <c r="R79" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -6070,6 +5994,7 @@
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2">
+        <f>9.5-2</f>
         <v>7.5</v>
       </c>
       <c r="O80" s="3">
@@ -6080,21 +6005,21 @@
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>187</v>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>303</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -6111,7 +6036,9 @@
       <c r="I81" s="2">
         <v>0</v>
       </c>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2">
+        <v>115</v>
+      </c>
       <c r="K81" s="2">
         <v>0</v>
       </c>
@@ -6120,7 +6047,7 @@
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -6130,21 +6057,21 @@
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>199</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -6158,12 +6085,10 @@
       <c r="H82" s="2">
         <v>0</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J82" s="2">
-        <v>100</v>
-      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2"/>
       <c r="K82" s="2">
         <v>0</v>
       </c>
@@ -6172,51 +6097,53 @@
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2">
-        <v>122.5</v>
+        <v>0</v>
       </c>
       <c r="O82" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="P82" s="3">
         <f xml:space="preserve"> M82+L82   +  N82 +O82- (G82 + H82 + I82 + K82 + J82)</f>
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>453</v>
       </c>
       <c r="R82" t="s">
-        <v>201</v>
-      </c>
-      <c r="S82" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>197</v>
+        <v>309</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G83" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H83" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2">
+        <v>100</v>
+      </c>
       <c r="K83" s="2">
         <v>6</v>
       </c>
@@ -6225,31 +6152,31 @@
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2">
-        <v>44.5</v>
+        <v>113.5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <f xml:space="preserve"> M83+L83   +  N83 +O83- (G83 + H83 + I83 + K83 + J83)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>205</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="B84" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -6261,22 +6188,21 @@
         <v>0</v>
       </c>
       <c r="H84" s="2">
-        <v>4</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L84" s="2">
         <v>0</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2">
-        <f>8.75+8.75</f>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="O84" s="3">
         <v>0</v>
@@ -6285,48 +6211,55 @@
         <f xml:space="preserve"> M84+L84   +  N84 +O84- (G84 + H84 + I84 + K84 + J84)</f>
         <v>0</v>
       </c>
+      <c r="Q84" t="s">
+        <v>453</v>
+      </c>
       <c r="R84" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>208</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H85" s="2">
-        <v>0</v>
-      </c>
-      <c r="I85" s="2">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="2">
+        <v>125</v>
+      </c>
       <c r="K85" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L85" s="2">
         <v>0</v>
       </c>
-      <c r="M85" s="2"/>
+      <c r="M85" s="2">
+        <v>125</v>
+      </c>
       <c r="N85" s="2">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="O85" s="3">
         <v>0</v>
@@ -6336,21 +6269,21 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>211</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>315</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -6364,15 +6297,16 @@
       <c r="H86" s="2">
         <v>0</v>
       </c>
-      <c r="I86" s="2">
-        <v>0</v>
+      <c r="I86" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2">
         <v>0</v>
       </c>
       <c r="L86" s="2">
-        <v>0</v>
+        <f>37.5-30</f>
+        <v>7.5</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2">
@@ -6385,31 +6319,32 @@
         <f xml:space="preserve"> M86+L86   +  N86 +O86- (G86 + H86 + I86 + K86 + J86)</f>
         <v>0</v>
       </c>
+      <c r="Q86" s="2"/>
       <c r="R86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H87" s="2">
         <v>4</v>
@@ -6417,7 +6352,9 @@
       <c r="I87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2">
+        <v>100</v>
+      </c>
       <c r="K87" s="2">
         <v>0</v>
       </c>
@@ -6426,31 +6363,31 @@
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2">
-        <v>73</v>
+        <v>111.5</v>
       </c>
       <c r="O87" s="3">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="P87" s="3">
         <f xml:space="preserve"> M87+L87   +  N87 +O87- (G87 + H87 + I87 + K87 + J87)</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="B88" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6485,40 +6422,43 @@
         <f xml:space="preserve"> M88+L88   +  N88 +O88- (G88 + H88 + I88 + K88 + J88)</f>
         <v>0</v>
       </c>
+      <c r="Q88" t="s">
+        <v>453</v>
+      </c>
       <c r="R88" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="B89" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
       </c>
-      <c r="I89" s="2">
-        <v>0</v>
+      <c r="I89" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J89" s="2">
-        <v>100</v>
+        <v>113.5</v>
       </c>
       <c r="K89" s="2">
         <v>0</v>
@@ -6528,7 +6468,7 @@
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -6538,21 +6478,21 @@
         <v>0</v>
       </c>
       <c r="R89" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>222</v>
+        <v>364</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>365</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -6564,46 +6504,47 @@
         <v>0</v>
       </c>
       <c r="H90" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J90" s="2"/>
       <c r="K90" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L90" s="2">
         <v>0</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2">
-        <f>60.5-8</f>
-        <v>52.5</v>
+        <f>22.5-15</f>
+        <v>7.5</v>
       </c>
       <c r="O90" s="3">
         <v>0</v>
       </c>
       <c r="P90" s="3">
         <f xml:space="preserve"> M90+L90   +  N90 +O90- (G90 + H90 + I90 + K90 + J90)</f>
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2"/>
       <c r="R90" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>225</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>226</v>
+        <v>371</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6639,21 +6580,21 @@
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6689,24 +6630,24 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>235</v>
+        <v>392</v>
       </c>
       <c r="E93">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6720,9 +6661,7 @@
       <c r="I93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J93" s="2">
-        <v>115</v>
-      </c>
+      <c r="J93" s="2"/>
       <c r="K93" s="2">
         <v>0</v>
       </c>
@@ -6731,7 +6670,7 @@
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2">
-        <v>137.5</v>
+        <v>22.5</v>
       </c>
       <c r="O93" s="3">
         <v>0</v>
@@ -6741,21 +6680,21 @@
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>237</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6769,12 +6708,10 @@
       <c r="H94" s="2">
         <v>0</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J94" s="2">
-        <v>100</v>
-      </c>
+      <c r="I94" s="2">
+        <v>0</v>
+      </c>
+      <c r="J94" s="2"/>
       <c r="K94" s="2">
         <v>0</v>
       </c>
@@ -6783,7 +6720,7 @@
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6792,13 +6729,16 @@
         <f xml:space="preserve"> M94+L94   +  N94 +O94- (G94 + H94 + I94 + K94 + J94)</f>
         <v>0</v>
       </c>
+      <c r="Q94" t="s">
+        <v>453</v>
+      </c>
       <c r="R94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
@@ -6807,16 +6747,16 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -6824,9 +6764,7 @@
       <c r="I95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J95" s="2">
-        <v>17.7</v>
-      </c>
+      <c r="J95" s="2"/>
       <c r="K95" s="2">
         <v>0</v>
       </c>
@@ -6835,32 +6773,31 @@
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2">
-        <f>56.8-34+4.4+15</f>
-        <v>42.199999999999996</v>
+        <v>7.5</v>
       </c>
       <c r="O95" s="3">
         <v>0</v>
       </c>
       <c r="P95" s="3">
         <f xml:space="preserve"> M95+L95   +  N95 +O95- (G95 + H95 + I95 + K95 + J95)</f>
-        <v>14.999999999999996</v>
+        <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>245</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6877,16 +6814,19 @@
       <c r="I96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2">
+        <v>60</v>
+      </c>
       <c r="K96" s="2">
         <v>0</v>
       </c>
       <c r="L96" s="2">
         <v>0</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" s="2">
+        <v>60</v>
+      </c>
       <c r="N96" s="2">
-        <f>22.5-15</f>
         <v>7.5</v>
       </c>
       <c r="O96" s="3">
@@ -6897,27 +6837,27 @@
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>251</v>
+        <v>428</v>
       </c>
       <c r="E97">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G97" s="2">
         <v>15</v>
@@ -6925,19 +6865,21 @@
       <c r="H97" s="2">
         <v>0</v>
       </c>
-      <c r="I97" s="2">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2"/>
+      <c r="I97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="2">
+        <v>68</v>
+      </c>
       <c r="K97" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L97" s="2">
         <v>0</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2">
-        <v>21</v>
+        <v>90.5</v>
       </c>
       <c r="O97" s="3">
         <v>0</v>
@@ -6947,47 +6889,47 @@
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>256</v>
+        <v>430</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>257</v>
+        <v>431</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H98" s="2">
-        <v>4</v>
-      </c>
-      <c r="I98" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2">
         <v>6</v>
       </c>
       <c r="L98" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2">
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="O98" s="3">
         <v>0</v>
@@ -6997,12 +6939,12 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="B99" t="s">
         <v>51</v>
@@ -7011,22 +6953,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F99">
         <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H99" s="2">
-        <v>4</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <v>0</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2">
@@ -7037,31 +6979,31 @@
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O99" s="3">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="P99" s="3">
         <f xml:space="preserve"> M99+L99   +  N99 +O99- (G99 + H99 + I99 + K99 + J99)</f>
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7073,34 +7015,34 @@
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L100" s="2">
         <v>0</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="P100" s="3">
         <f xml:space="preserve"> M100+L100   +  N100 +O100- (G100 + H100 + I100 + K100 + J100)</f>
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>268</v>
       </c>
@@ -7151,18 +7093,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>270</v>
+    <row r="102" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="B102" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -7181,15 +7123,14 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L102" s="2">
         <v>0</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2">
-        <f>25-19</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7198,22 +7139,25 @@
         <f xml:space="preserve"> M102+L102   +  N102 +O102- (G102 + H102 + I102 + K102 + J102)</f>
         <v>0</v>
       </c>
+      <c r="Q102" t="s">
+        <v>453</v>
+      </c>
       <c r="R102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>273</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -7225,14 +7169,14 @@
         <v>0</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
-      </c>
-      <c r="I103" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L103" s="2">
         <v>0</v>
@@ -7242,31 +7186,31 @@
         <v>0</v>
       </c>
       <c r="O103" s="3">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="P103" s="3">
         <f xml:space="preserve"> M103+L103   +  N103 +O103- (G103 + H103 + I103 + K103 + J103)</f>
         <v>0</v>
       </c>
       <c r="R103" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>350</v>
       </c>
       <c r="E104">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7275,7 +7219,7 @@
         <v>15</v>
       </c>
       <c r="H104" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>23</v>
@@ -7284,38 +7228,38 @@
         <v>115</v>
       </c>
       <c r="K104" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L104" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="O104" s="3">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="P104" s="3">
         <f xml:space="preserve"> M104+L104   +  N104 +O104- (G104 + H104 + I104 + K104 + J104)</f>
         <v>0</v>
       </c>
       <c r="R104" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>407</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -7350,41 +7294,42 @@
         <f xml:space="preserve"> M105+L105   +  N105 +O105- (G105 + H105 + I105 + K105 + J105)</f>
         <v>0</v>
       </c>
+      <c r="Q105" t="s">
+        <v>453</v>
+      </c>
       <c r="R105" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>281</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>413</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G106" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J106" s="2">
-        <v>113.5</v>
-      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2"/>
       <c r="K106" s="2">
         <v>0</v>
       </c>
@@ -7393,7 +7338,7 @@
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="O106" s="3">
         <v>0</v>
@@ -7402,44 +7347,47 @@
         <f xml:space="preserve"> M106+L106   +  N106 +O106- (G106 + H106 + I106 + K106 + J106)</f>
         <v>0</v>
       </c>
+      <c r="Q106" t="s">
+        <v>453</v>
+      </c>
       <c r="R106" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>284</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>285</v>
+        <v>419</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G107" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H107" s="2">
-        <v>4</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
       </c>
       <c r="J107" s="2"/>
       <c r="K107" s="2">
         <v>0</v>
       </c>
       <c r="L107" s="2">
-        <v>36.5</v>
+        <v>0</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2">
@@ -7452,31 +7400,34 @@
         <f xml:space="preserve"> M107+L107   +  N107 +O107- (G107 + H107 + I107 + K107 + J107)</f>
         <v>0</v>
       </c>
+      <c r="Q107" t="s">
+        <v>453</v>
+      </c>
       <c r="R107" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>287</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>422</v>
       </c>
       <c r="E108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -7484,14 +7435,12 @@
       <c r="I108" s="2">
         <v>0</v>
       </c>
-      <c r="J108" s="2">
-        <v>125</v>
-      </c>
+      <c r="J108" s="2"/>
       <c r="K108" s="2">
         <v>0</v>
       </c>
       <c r="L108" s="2">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2">
@@ -7504,13 +7453,16 @@
         <f xml:space="preserve"> M108+L108   +  N108 +O108- (G108 + H108 + I108 + K108 + J108)</f>
         <v>0</v>
       </c>
+      <c r="Q108" t="s">
+        <v>453</v>
+      </c>
       <c r="R108" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>293</v>
+        <v>424</v>
       </c>
       <c r="B109" t="s">
         <v>17</v>
@@ -7519,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7554,22 +7506,22 @@
         <f xml:space="preserve"> M109+L109   +  N109 +O109- (G109 + H109 + I109 + K109 + J109)</f>
         <v>0</v>
       </c>
+      <c r="Q109" t="s">
+        <v>453</v>
+      </c>
       <c r="R109" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
-        <v>296</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="B110" t="s">
         <v>43</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>443</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7583,8 +7535,8 @@
       <c r="H110" s="2">
         <v>0</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>23</v>
+      <c r="I110" s="2">
+        <v>0</v>
       </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2">
@@ -7595,8 +7547,7 @@
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2">
-        <f>9.5-2</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O110" s="3">
         <v>0</v>
@@ -7605,22 +7556,22 @@
         <f xml:space="preserve"> M110+L110   +  N110 +O110- (G110 + H110 + I110 + K110 + J110)</f>
         <v>0</v>
       </c>
+      <c r="Q110" t="s">
+        <v>453</v>
+      </c>
       <c r="R110" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>302</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="B111" t="s">
         <v>21</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
       <c r="D111" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7637,9 +7588,7 @@
       <c r="I111" s="2">
         <v>0</v>
       </c>
-      <c r="J111" s="2">
-        <v>115</v>
-      </c>
+      <c r="J111" s="2"/>
       <c r="K111" s="2">
         <v>0</v>
       </c>
@@ -7648,7 +7597,7 @@
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="O111" s="3">
         <v>0</v>
@@ -7657,65 +7606,70 @@
         <f xml:space="preserve"> M111+L111   +  N111 +O111- (G111 + H111 + I111 + K111 + J111)</f>
         <v>0</v>
       </c>
+      <c r="Q111" t="s">
+        <v>453</v>
+      </c>
       <c r="R111" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>309</v>
+        <v>18</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J112" s="2">
-        <v>100</v>
-      </c>
+      <c r="I112" s="2">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2"/>
       <c r="K112" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L112" s="2">
-        <v>0</v>
+        <f>22-20</f>
+        <v>2</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2">
-        <v>113.5</v>
+        <v>0</v>
       </c>
       <c r="O112" s="3">
         <v>0</v>
       </c>
       <c r="P112" s="3">
         <f xml:space="preserve"> M112+L112   +  N112 +O112- (G112 + H112 + I112 + K112 + J112)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>311</v>
+        <v>19</v>
+      </c>
+      <c r="S112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B113" t="s">
         <v>21</v>
@@ -7724,113 +7678,117 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>122</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H113" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J113" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K113" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L113" s="2">
         <v>0</v>
       </c>
       <c r="M113" s="2">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N113" s="2">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="O113" s="3">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="P113" s="3">
         <f xml:space="preserve"> M113+L113   +  N113 +O113- (G113 + H113 + I113 + K113 + J113)</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R113" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>314</v>
+        <v>123</v>
+      </c>
+      <c r="S113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>23</v>
+      <c r="I114" s="2">
+        <v>0</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2">
         <v>0</v>
       </c>
       <c r="L114" s="2">
-        <f>37.5-30</f>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2">
         <v>0</v>
       </c>
       <c r="O114" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P114" s="3">
         <f xml:space="preserve"> M114+L114   +  N114 +O114- (G114 + H114 + I114 + K114 + J114)</f>
-        <v>0</v>
-      </c>
-      <c r="Q114" s="2"/>
+        <v>-4</v>
+      </c>
       <c r="R114" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>317</v>
+        <v>132</v>
+      </c>
+      <c r="S114" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7849,7 +7807,7 @@
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L115" s="2">
         <v>0</v>
@@ -7863,41 +7821,46 @@
       </c>
       <c r="P115" s="3">
         <f xml:space="preserve"> M115+L115   +  N115 +O115- (G115 + H115 + I115 + K115 + J115)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="R115" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>323</v>
+        <v>195</v>
+      </c>
+      <c r="S115" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
       </c>
-      <c r="I116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J116" s="2"/>
+      <c r="I116" s="2">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <v>15</v>
+      </c>
       <c r="K116" s="2">
         <v>6</v>
       </c>
@@ -7906,48 +7869,53 @@
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="O116" s="3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P116" s="3">
         <f xml:space="preserve"> M116+L116   +  N116 +O116- (G116 + H116 + I116 + K116 + J116)</f>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="R116" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
-        <v>326</v>
+        <v>267</v>
+      </c>
+      <c r="S116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
       </c>
-      <c r="I117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J117" s="2"/>
+      <c r="I117" s="2">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <v>30</v>
+      </c>
       <c r="K117" s="2">
         <v>6</v>
       </c>
@@ -7956,23 +7924,27 @@
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2">
-        <f>24.75+3.75+3</f>
-        <v>31.5</v>
+        <f>68-28</f>
+        <v>40</v>
       </c>
       <c r="O117" s="3">
         <v>0</v>
       </c>
       <c r="P117" s="3">
         <f xml:space="preserve"> M117+L117   +  N117 +O117- (G117 + H117 + I117 + K117 + J117)</f>
-        <v>12</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="Q117" s="2"/>
       <c r="R117" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="S117" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="B118" t="s">
         <v>21</v>
@@ -7981,16 +7953,16 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -8003,106 +7975,110 @@
         <v>6</v>
       </c>
       <c r="L118" s="2">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" s="2">
-        <f>42.5-42</f>
-        <v>0.5</v>
+        <v>22.5</v>
       </c>
       <c r="O118" s="3">
         <v>0</v>
       </c>
       <c r="P118" s="3">
         <f xml:space="preserve"> M118+L118   +  N118 +O118- (G118 + H118 + I118 + K118 + J118)</f>
-        <v>0.5</v>
+        <v>-7</v>
       </c>
       <c r="R118" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>335</v>
+        <v>322</v>
+      </c>
+      <c r="S118" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>336</v>
+        <v>191</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H119" s="2">
-        <v>4</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" s="2">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J119" s="2"/>
       <c r="K119" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L119" s="2">
         <v>0</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2">
-        <v>111.5</v>
+        <f>15.5+15.5</f>
+        <v>31</v>
       </c>
       <c r="O119" s="3">
         <v>0</v>
       </c>
       <c r="P119" s="3">
         <f xml:space="preserve"> M119+L119   +  N119 +O119- (G119 + H119 + I119 + K119 + J119)</f>
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="R119" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>338</v>
+        <v>192</v>
+      </c>
+      <c r="S119" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>339</v>
+        <v>119</v>
       </c>
       <c r="E120">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G120" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
       </c>
-      <c r="I120" s="2" t="s">
-        <v>23</v>
+      <c r="I120" s="2">
+        <v>0</v>
       </c>
       <c r="J120" s="2">
-        <v>113.5</v>
+        <v>100</v>
       </c>
       <c r="K120" s="2">
         <v>0</v>
@@ -8110,42 +8086,48 @@
       <c r="L120" s="2">
         <v>0</v>
       </c>
-      <c r="M120" s="2"/>
+      <c r="M120" s="2">
+        <v>100</v>
+      </c>
       <c r="N120" s="2">
-        <v>146</v>
+        <f>44-44</f>
+        <v>0</v>
       </c>
       <c r="O120" s="3">
         <v>0</v>
       </c>
       <c r="P120" s="3">
         <f xml:space="preserve"> M120+L120   +  N120 +O120- (G120 + H120 + I120 + K120 + J120)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="R120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>340</v>
+        <v>120</v>
+      </c>
+      <c r="S120" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G121" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -8153,7 +8135,9 @@
       <c r="I121" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J121" s="2"/>
+      <c r="J121" s="2">
+        <v>17</v>
+      </c>
       <c r="K121" s="2">
         <v>0</v>
       </c>
@@ -8162,92 +8146,101 @@
       </c>
       <c r="M121" s="2"/>
       <c r="N121" s="2">
-        <v>37.5</v>
+        <f>47.5-8</f>
+        <v>39.5</v>
       </c>
       <c r="O121" s="3">
         <v>0</v>
       </c>
       <c r="P121" s="3">
         <f xml:space="preserve"> M121+L121   +  N121 +O121- (G121 + H121 + I121 + K121 + J121)</f>
-        <v>30</v>
+        <v>-10</v>
       </c>
       <c r="R121" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>349</v>
+        <v>396</v>
+      </c>
+      <c r="S121" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="B122" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="E122">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H122" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J122" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K122" s="2">
         <v>6</v>
       </c>
       <c r="L122" s="2">
-        <v>115</v>
-      </c>
-      <c r="M122" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>100</v>
+      </c>
       <c r="N122" s="2">
         <v>0</v>
       </c>
       <c r="O122" s="3">
-        <v>32.5</v>
+        <v>3</v>
       </c>
       <c r="P122" s="3">
         <f xml:space="preserve"> M122+L122   +  N122 +O122- (G122 + H122 + I122 + K122 + J122)</f>
-        <v>0</v>
+        <v>-10.5</v>
       </c>
       <c r="R122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>355</v>
+        <v>399</v>
+      </c>
+      <c r="S122" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>356</v>
+        <v>125</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -8257,90 +8250,98 @@
       </c>
       <c r="J123" s="2"/>
       <c r="K123" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L123" s="2">
         <v>0</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2">
-        <v>0</v>
+        <f>150-59-90</f>
+        <v>1</v>
       </c>
       <c r="O123" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P123" s="3">
         <f xml:space="preserve"> M123+L123   +  N123 +O123- (G123 + H123 + I123 + K123 + J123)</f>
+        <v>-11</v>
+      </c>
+      <c r="R123" t="s">
+        <v>126</v>
+      </c>
+      <c r="S123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" s="2">
+        <v>60</v>
+      </c>
+      <c r="K124" s="2">
         <v>6</v>
-      </c>
-      <c r="R123" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="B124" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>365</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124" s="2">
-        <v>0</v>
-      </c>
-      <c r="H124" s="2">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2">
-        <v>0</v>
       </c>
       <c r="L124" s="2">
         <v>0</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2">
-        <f>22.5-15</f>
-        <v>7.5</v>
+        <f>108-48</f>
+        <v>60</v>
       </c>
       <c r="O124" s="3">
         <v>0</v>
       </c>
       <c r="P124" s="3">
         <f xml:space="preserve"> M124+L124   +  N124 +O124- (G124 + H124 + I124 + K124 + J124)</f>
-        <v>0</v>
-      </c>
-      <c r="Q124" s="2"/>
+        <v>-13.5</v>
+      </c>
       <c r="R124" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>367</v>
+        <v>38</v>
+      </c>
+      <c r="S124" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -8359,38 +8360,42 @@
       </c>
       <c r="J125" s="2"/>
       <c r="K125" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L125" s="2">
         <v>0</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2">
+        <f>17-17</f>
         <v>0</v>
       </c>
       <c r="O125" s="3">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="P125" s="3">
         <f xml:space="preserve"> M125+L125   +  N125 +O125- (G125 + H125 + I125 + K125 + J125)</f>
-        <v>30</v>
+        <v>-13.5</v>
       </c>
       <c r="R125" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>370</v>
+        <v>292</v>
+      </c>
+      <c r="S125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>371</v>
+        <v>55</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -8404,8 +8409,8 @@
       <c r="H126" s="2">
         <v>0</v>
       </c>
-      <c r="I126" s="2" t="s">
-        <v>23</v>
+      <c r="I126" s="2">
+        <v>0</v>
       </c>
       <c r="J126" s="2"/>
       <c r="K126" s="2">
@@ -8416,43 +8421,49 @@
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O126" s="3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="P126" s="3">
         <f xml:space="preserve"> M126+L126   +  N126 +O126- (G126 + H126 + I126 + K126 + J126)</f>
-        <v>0</v>
+        <v>-15</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>453</v>
       </c>
       <c r="R126" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>373</v>
+        <v>56</v>
+      </c>
+      <c r="S126" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>23</v>
@@ -8466,31 +8477,35 @@
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2">
-        <v>23</v>
+        <f>21-21</f>
+        <v>0</v>
       </c>
       <c r="O127" s="3">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="P127" s="3">
         <f xml:space="preserve"> M127+L127   +  N127 +O127- (G127 + H127 + I127 + K127 + J127)</f>
-        <v>23</v>
+        <v>-15.5</v>
       </c>
       <c r="R127" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>376</v>
+        <v>348</v>
+      </c>
+      <c r="S127" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>377</v>
+        <v>306</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -8502,20 +8517,21 @@
         <v>0</v>
       </c>
       <c r="H128" s="2">
-        <v>0</v>
-      </c>
-      <c r="I128" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J128" s="2"/>
       <c r="K128" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L128" s="2">
         <v>0</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2">
+        <f>35-35</f>
         <v>0</v>
       </c>
       <c r="O128" s="3">
@@ -8523,15 +8539,18 @@
       </c>
       <c r="P128" s="3">
         <f xml:space="preserve"> M128+L128   +  N128 +O128- (G128 + H128 + I128 + K128 + J128)</f>
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="R128" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>382</v>
+        <v>307</v>
+      </c>
+      <c r="S128" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B129" t="s">
         <v>21</v>
@@ -8540,59 +8559,61 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>383</v>
+        <v>249</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H129" s="2">
-        <v>4</v>
-      </c>
-      <c r="I129" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J129" s="2"/>
       <c r="K129" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L129" s="2">
         <v>0</v>
       </c>
       <c r="M129" s="2"/>
       <c r="N129" s="2">
-        <f>38-8</f>
-        <v>30</v>
+        <f>90-90</f>
+        <v>0</v>
       </c>
       <c r="O129" s="3">
         <v>0</v>
       </c>
       <c r="P129" s="3">
         <f xml:space="preserve"> M129+L129   +  N129 +O129- (G129 + H129 + I129 + K129 + J129)</f>
-        <v>20</v>
-      </c>
-      <c r="Q129" s="2"/>
+        <v>-21.5</v>
+      </c>
       <c r="R129" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
-        <v>388</v>
+        <v>126</v>
+      </c>
+      <c r="S129" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -8618,22 +8639,25 @@
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O130" s="3">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="P130" s="3">
         <f xml:space="preserve"> M130+L130   +  N130 +O130- (G130 + H130 + I130 + K130 + J130)</f>
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="R130" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>391</v>
+        <v>363</v>
+      </c>
+      <c r="S130" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="B131" t="s">
         <v>17</v>
@@ -8642,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E131">
         <v>10</v>
@@ -8668,22 +8692,27 @@
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2">
-        <v>22.5</v>
+        <f>45-45</f>
+        <v>0</v>
       </c>
       <c r="O131" s="3">
         <v>0</v>
       </c>
       <c r="P131" s="3">
         <f xml:space="preserve"> M131+L131   +  N131 +O131- (G131 + H131 + I131 + K131 + J131)</f>
-        <v>0</v>
-      </c>
+        <v>-22.5</v>
+      </c>
+      <c r="Q131" s="2"/>
       <c r="R131" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>400</v>
+        <v>387</v>
+      </c>
+      <c r="S131" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B132" t="s">
         <v>17</v>
@@ -8692,16 +8721,16 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>401</v>
+        <v>232</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -8718,31 +8747,34 @@
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="O132" s="3">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="P132" s="3">
         <f xml:space="preserve"> M132+L132   +  N132 +O132- (G132 + H132 + I132 + K132 + J132)</f>
-        <v>0</v>
+        <v>-26.5</v>
       </c>
       <c r="R132" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>403</v>
+        <v>233</v>
+      </c>
+      <c r="S132" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>299</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>404</v>
+        <v>300</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -8754,74 +8786,78 @@
         <v>0</v>
       </c>
       <c r="H133" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J133" s="2">
-        <v>100</v>
-      </c>
+      <c r="J133" s="2"/>
       <c r="K133" s="2">
         <v>0</v>
       </c>
       <c r="L133" s="2">
         <v>0</v>
       </c>
-      <c r="M133" s="2">
-        <v>100</v>
-      </c>
+      <c r="M133" s="2"/>
       <c r="N133" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O133" s="3">
-        <v>22.5</v>
+        <v>-16</v>
       </c>
       <c r="P133" s="3">
         <f xml:space="preserve"> M133+L133   +  N133 +O133- (G133 + H133 + I133 + K133 + J133)</f>
-        <v>30</v>
+        <v>-27.5</v>
       </c>
       <c r="R133" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>406</v>
+        <v>301</v>
+      </c>
+      <c r="S133" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>407</v>
+        <v>86</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G134" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
       </c>
-      <c r="I134" s="2">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J134" s="2">
+        <v>115</v>
+      </c>
       <c r="K134" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L134" s="2">
         <v>0</v>
       </c>
-      <c r="M134" s="2"/>
+      <c r="M134" s="2">
+        <v>115</v>
+      </c>
       <c r="N134" s="2">
+        <f>55-55</f>
         <v>0</v>
       </c>
       <c r="O134" s="3">
@@ -8829,33 +8865,36 @@
       </c>
       <c r="P134" s="3">
         <f xml:space="preserve"> M134+L134   +  N134 +O134- (G134 + H134 + I134 + K134 + J134)</f>
-        <v>0</v>
+        <v>-28.5</v>
       </c>
       <c r="R134" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>409</v>
+        <v>87</v>
+      </c>
+      <c r="S134" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>410</v>
+        <v>254</v>
       </c>
       <c r="E135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H135" s="2">
         <v>0</v>
@@ -8863,9 +8902,7 @@
       <c r="I135" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J135" s="2">
-        <v>115</v>
-      </c>
+      <c r="J135" s="2"/>
       <c r="K135" s="2">
         <v>0</v>
       </c>
@@ -8874,55 +8911,62 @@
       </c>
       <c r="M135" s="2"/>
       <c r="N135" s="2">
-        <v>137.5</v>
+        <v>0</v>
       </c>
       <c r="O135" s="3">
-        <v>1.5</v>
+        <v>-22.5</v>
       </c>
       <c r="P135" s="3">
         <f xml:space="preserve"> M135+L135   +  N135 +O135- (G135 + H135 + I135 + K135 + J135)</f>
-        <v>1.5</v>
+        <v>-30</v>
       </c>
       <c r="R135" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>412</v>
+        <v>255</v>
+      </c>
+      <c r="S135" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G136" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
       </c>
-      <c r="I136" s="2">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2"/>
+      <c r="I136" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J136" s="2">
+        <v>125</v>
+      </c>
       <c r="K136" s="2">
         <v>0</v>
       </c>
       <c r="L136" s="2">
         <v>0</v>
       </c>
-      <c r="M136" s="2"/>
+      <c r="M136" s="2">
+        <v>125</v>
+      </c>
       <c r="N136" s="2">
         <v>0</v>
       </c>
@@ -8931,33 +8975,36 @@
       </c>
       <c r="P136" s="3">
         <f xml:space="preserve"> M136+L136   +  N136 +O136- (G136 + H136 + I136 + K136 + J136)</f>
-        <v>0</v>
+        <v>-30.5</v>
       </c>
       <c r="R136" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>415</v>
+        <v>381</v>
+      </c>
+      <c r="S136" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G137" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -8966,58 +9013,60 @@
         <v>23</v>
       </c>
       <c r="J137" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K137" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L137" s="2">
         <v>0</v>
       </c>
-      <c r="M137" s="2">
-        <v>60</v>
-      </c>
+      <c r="M137" s="2"/>
       <c r="N137" s="2">
-        <v>7.5</v>
+        <f>236.5-136.5</f>
+        <v>100</v>
       </c>
       <c r="O137" s="3">
         <v>0</v>
       </c>
       <c r="P137" s="3">
         <f xml:space="preserve"> M137+L137   +  N137 +O137- (G137 + H137 + I137 + K137 + J137)</f>
-        <v>0</v>
+        <v>-31.5</v>
       </c>
       <c r="R137" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>418</v>
+        <v>168</v>
+      </c>
+      <c r="S137" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
       </c>
-      <c r="I138" s="2">
-        <v>0</v>
+      <c r="I138" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J138" s="2"/>
       <c r="K138" s="2">
@@ -9031,28 +9080,31 @@
         <v>0</v>
       </c>
       <c r="O138" s="3">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="P138" s="3">
         <f xml:space="preserve"> M138+L138   +  N138 +O138- (G138 + H138 + I138 + K138 + J138)</f>
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="R138" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>421</v>
+        <v>135</v>
+      </c>
+      <c r="S138" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>439</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -9066,12 +9118,12 @@
       <c r="H139" s="2">
         <v>0</v>
       </c>
-      <c r="I139" s="2">
-        <v>0</v>
+      <c r="I139" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J139" s="2"/>
       <c r="K139" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L139" s="2">
         <v>0</v>
@@ -9081,45 +9133,50 @@
         <v>0</v>
       </c>
       <c r="O139" s="3">
-        <v>0</v>
+        <v>-81</v>
       </c>
       <c r="P139" s="3">
         <f xml:space="preserve"> M139+L139   +  N139 +O139- (G139 + H139 + I139 + K139 + J139)</f>
-        <v>0</v>
+        <v>-94.5</v>
       </c>
       <c r="R139" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
+      </c>
+      <c r="S139" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
         <v>0</v>
       </c>
       <c r="G140" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" s="2">
         <v>0</v>
       </c>
-      <c r="I140" s="2">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2"/>
+      <c r="I140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J140" s="2">
+        <v>17.7</v>
+      </c>
       <c r="K140" s="2">
         <v>0</v>
       </c>
@@ -9128,40 +9185,44 @@
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2">
-        <v>0</v>
+        <f>56.8-4.4-15-17.7</f>
+        <v>19.7</v>
       </c>
       <c r="O140" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="P140" s="3">
         <f xml:space="preserve"> M140+L140   +  N140 +O140- (G140 + H140 + I140 + K140 + J140)</f>
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="R140" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>427</v>
+        <v>242</v>
+      </c>
+      <c r="S140" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>358</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G141" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H141" s="2">
         <v>0</v>
@@ -9169,149 +9230,156 @@
       <c r="I141" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J141" s="2">
-        <v>68</v>
-      </c>
+      <c r="J141" s="2"/>
       <c r="K141" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L141" s="2">
         <v>0</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="O141" s="3">
-        <v>0</v>
+        <v>-65</v>
       </c>
       <c r="P141" s="3">
         <f xml:space="preserve"> M141+L141   +  N141 +O141- (G141 + H141 + I141 + K141 + J141)</f>
-        <v>0</v>
+        <v>-103.5</v>
       </c>
       <c r="R141" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>430</v>
+        <v>360</v>
+      </c>
+      <c r="S141" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D142" t="s">
-        <v>431</v>
+        <v>89</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G142" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H142" s="2">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="J142" s="2"/>
       <c r="K142" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L142" s="2">
         <v>0</v>
       </c>
       <c r="M142" s="2"/>
       <c r="N142" s="2">
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="O142" s="3">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="P142" s="3">
         <f xml:space="preserve"> M142+L142   +  N142 +O142- (G142 + H142 + I142 + K142 + J142)</f>
-        <v>0</v>
+        <v>-107.5</v>
       </c>
       <c r="R142" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="10" t="s">
-        <v>433</v>
+        <v>91</v>
+      </c>
+      <c r="S142" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>434</v>
+        <v>344</v>
       </c>
       <c r="E143">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G143" s="2">
+        <v>25</v>
+      </c>
+      <c r="H143" s="2">
+        <v>4</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J143" s="2">
+        <v>100</v>
+      </c>
+      <c r="K143" s="2">
         <v>6</v>
-      </c>
-      <c r="H143" s="2">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2">
-        <v>0</v>
       </c>
       <c r="L143" s="2">
         <v>0</v>
       </c>
       <c r="M143" s="2"/>
       <c r="N143" s="2">
-        <f>24.75-3.75-3</f>
-        <v>18</v>
+        <f>85-85</f>
+        <v>0</v>
       </c>
       <c r="O143" s="3">
         <v>0</v>
       </c>
       <c r="P143" s="3">
         <f xml:space="preserve"> M143+L143   +  N143 +O143- (G143 + H143 + I143 + K143 + J143)</f>
-        <v>12</v>
-      </c>
+        <v>-142.5</v>
+      </c>
+      <c r="Q143" s="2"/>
       <c r="R143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>435</v>
+        <v>345</v>
+      </c>
+      <c r="S143" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="E144">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2">
         <v>15</v>
@@ -9319,8 +9387,8 @@
       <c r="H144" s="2">
         <v>0</v>
       </c>
-      <c r="I144" s="2">
-        <v>0</v>
+      <c r="I144" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J144" s="2"/>
       <c r="K144" s="2">
@@ -9331,43 +9399,49 @@
       </c>
       <c r="M144" s="2"/>
       <c r="N144" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O144" s="3">
-        <v>0</v>
+        <v>-169</v>
       </c>
       <c r="P144" s="3">
         <f xml:space="preserve"> M144+L144   +  N144 +O144- (G144 + H144 + I144 + K144 + J144)</f>
-        <v>0</v>
+        <v>-197.5</v>
       </c>
       <c r="R144" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>442</v>
+        <v>354</v>
+      </c>
+      <c r="S144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>443</v>
+        <v>244</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G145" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
       </c>
-      <c r="I145" s="2">
-        <v>0</v>
+      <c r="I145" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J145" s="2"/>
       <c r="K145" s="2">
@@ -9381,44 +9455,50 @@
         <v>0</v>
       </c>
       <c r="O145" s="3">
-        <v>0</v>
+        <v>-195</v>
       </c>
       <c r="P145" s="3">
         <f xml:space="preserve"> M145+L145   +  N145 +O145- (G145 + H145 + I145 + K145 + J145)</f>
-        <v>0</v>
+        <v>-227.5</v>
       </c>
       <c r="R145" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>445</v>
+        <v>192</v>
+      </c>
+      <c r="S145" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>446</v>
+        <v>203</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G146" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
       </c>
-      <c r="I146" s="2">
-        <v>0</v>
+      <c r="I146" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J146" s="2"/>
       <c r="K146" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L146" s="2">
         <v>0</v>
@@ -9428,27 +9508,33 @@
         <v>0</v>
       </c>
       <c r="O146" s="3">
-        <v>0</v>
+        <v>-258</v>
       </c>
       <c r="P146" s="3">
         <f xml:space="preserve"> M146+L146   +  N146 +O146- (G146 + H146 + I146 + K146 + J146)</f>
-        <v>0</v>
+        <v>-275.5</v>
       </c>
       <c r="R146" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="S146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="N148" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:T146" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="16">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T146">
-      <sortCondition sortBy="fontColor" ref="P1:P146" dxfId="1"/>
+      <sortCondition descending="1" ref="P1:P146"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="O2:P146">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
